--- a/reports/For The Week Ending (Actual)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Actual)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>department</t>
   </si>
@@ -67,9 +67,6 @@
     <t>D5202</t>
   </si>
   <si>
-    <t>D5205</t>
-  </si>
-  <si>
     <t>D5206</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>D6780</t>
-  </si>
-  <si>
-    <t>D6781</t>
   </si>
   <si>
     <t>D6790</t>
@@ -502,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>597.48</v>
+        <v>298.74</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -533,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>3327.37</v>
+        <v>1580.28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +535,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>3257.84</v>
+        <v>2207.96</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +543,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2980.71</v>
+        <v>761.12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +551,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>1243.21</v>
+        <v>227.04</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>2105.85</v>
+        <v>1318.83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +567,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1812.67</v>
+        <v>885.19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +575,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>5255.31</v>
+        <v>2770.28</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>5538.00</v>
+        <v>2374.85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +591,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>2250.70</v>
+        <v>5186.69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +599,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>310.36</v>
+        <v>224.48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +607,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>183.96</v>
+        <v>172.44</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>2420.72</v>
+        <v>1210.36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +623,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1055.15</v>
+        <v>509.95</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>77.77</v>
+        <v>123.25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +639,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>0.30</v>
+        <v>880.15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>999.12</v>
+        <v>279.23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +655,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>952.72</v>
+        <v>1332.73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +663,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>3113.36</v>
+        <v>250.14</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -677,7 +671,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>378.42</v>
+        <v>201.76</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +679,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>403.52</v>
+        <v>595.87</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>1191.74</v>
+        <v>1594.44</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>3327.13</v>
+        <v>238.86</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +703,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>973.46</v>
+        <v>1757.26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +711,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>3552.32</v>
+        <v>369.46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +719,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>738.92</v>
+        <v>390.15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>780.30</v>
+        <v>182.60</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +735,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>366.14</v>
+        <v>1009.30</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +743,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>2092.02</v>
+        <v>996.76</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>2023.78</v>
+        <v>684.86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +759,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>118.44</v>
+        <v>440.16</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>893.74</v>
+        <v>591.01</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +775,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>1134.01</v>
+        <v>1308.20</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +783,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>1556.64</v>
+        <v>342.49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +791,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>2310.40</v>
+        <v>399.62</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +799,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>973.06</v>
+        <v>336.27</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>799.24</v>
+        <v>175.96</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,23 +815,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2">
-        <v>673.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>351.92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2">
-        <v>162.18</v>
+        <v>81.94</v>
       </c>
     </row>
   </sheetData>

--- a/reports/For The Week Ending (Actual)_PayrollHistory.xlsx
+++ b/reports/For The Week Ending (Actual)_PayrollHistory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>department</t>
   </si>
@@ -52,40 +52,37 @@
     <t>D2000</t>
   </si>
   <si>
-    <t>D2200</t>
-  </si>
-  <si>
-    <t>D4055</t>
+    <t>D3000</t>
+  </si>
+  <si>
+    <t>D3050</t>
+  </si>
+  <si>
+    <t>D4031</t>
+  </si>
+  <si>
+    <t>D4032</t>
+  </si>
+  <si>
+    <t>D4034</t>
   </si>
   <si>
     <t>D5000</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>D5202</t>
-  </si>
-  <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>D5209</t>
-  </si>
-  <si>
-    <t>D5810</t>
-  </si>
-  <si>
-    <t>D5820</t>
-  </si>
-  <si>
-    <t>D6212</t>
+    <t>D5110</t>
+  </si>
+  <si>
+    <t>D5111</t>
+  </si>
+  <si>
+    <t>D5112</t>
+  </si>
+  <si>
+    <t>D5113</t>
+  </si>
+  <si>
+    <t>D6030</t>
   </si>
   <si>
     <t>D6215</t>
@@ -94,16 +91,16 @@
     <t>D6700</t>
   </si>
   <si>
-    <t>D6710</t>
-  </si>
-  <si>
-    <t>D6720</t>
+    <t>D6721</t>
   </si>
   <si>
     <t>D6730</t>
   </si>
   <si>
-    <t>D6750</t>
+    <t>D6740</t>
+  </si>
+  <si>
+    <t>D6760</t>
   </si>
   <si>
     <t>D6780</t>
@@ -130,10 +127,10 @@
     <t>D8060</t>
   </si>
   <si>
-    <t>D8700</t>
-  </si>
-  <si>
-    <t>D8800</t>
+    <t>D9007</t>
+  </si>
+  <si>
+    <t>D9009</t>
   </si>
 </sst>
 </file>
@@ -496,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>298.74</v>
+        <v>914.01</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -527,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1580.28</v>
+        <v>5660.91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -535,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>2207.96</v>
+        <v>563.40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -543,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>761.12</v>
+        <v>1875.25</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -551,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>227.04</v>
+        <v>596.62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -559,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1318.83</v>
+        <v>803.48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -567,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>885.19</v>
+        <v>793.66</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -575,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>2770.28</v>
+        <v>2972.19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -583,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>2374.85</v>
+        <v>1467.31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -591,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>5186.69</v>
+        <v>2556.53</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -599,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>224.48</v>
+        <v>1598.61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -607,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>172.44</v>
+        <v>328.68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -615,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1210.36</v>
+        <v>166.62</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -623,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>509.95</v>
+        <v>524.60</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -631,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>123.25</v>
+        <v>159.39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -639,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>880.15</v>
+        <v>1102.20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -647,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>279.23</v>
+        <v>1317.51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -655,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1332.73</v>
+        <v>1494.63</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -663,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>250.14</v>
+        <v>261.10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -671,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>201.76</v>
+        <v>540.70</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -679,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>595.87</v>
+        <v>300.34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -687,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>1594.44</v>
+        <v>192.51</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -695,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>238.86</v>
+        <v>250.69</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -703,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>1757.26</v>
+        <v>382.09</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -711,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>369.46</v>
+        <v>382.86</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -719,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>390.15</v>
+        <v>1035.30</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -727,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>182.60</v>
+        <v>830.86</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -735,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>1009.30</v>
+        <v>256.50</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -743,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>996.76</v>
+        <v>299.18</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -751,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>684.86</v>
+        <v>311.81</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -759,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>440.16</v>
+        <v>1047.03</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -767,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>591.01</v>
+        <v>824.18</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -775,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>1308.20</v>
+        <v>184.07</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -783,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>342.49</v>
+        <v>217.03</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -791,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>399.62</v>
+        <v>625.69</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -799,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>336.27</v>
+        <v>296.92</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -807,15 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
-        <v>175.96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2">
-        <v>81.94</v>
+        <v>106.24</v>
       </c>
     </row>
   </sheetData>
